--- a/NatmiData/natmiOut_TPM/YoungD4/LR-pairs_lrc2p/C3-Nrp1.xlsx
+++ b/NatmiData/natmiOut_TPM/YoungD4/LR-pairs_lrc2p/C3-Nrp1.xlsx
@@ -540,16 +540,16 @@
         <v>1</v>
       </c>
       <c r="G2">
-        <v>4.153678333333333</v>
+        <v>3.820425</v>
       </c>
       <c r="H2">
-        <v>12.461035</v>
+        <v>11.461275</v>
       </c>
       <c r="I2">
-        <v>0.02267710693885585</v>
+        <v>0.02049663039797357</v>
       </c>
       <c r="J2">
-        <v>0.02267710693885585</v>
+        <v>0.02049663039797357</v>
       </c>
       <c r="K2">
         <v>3</v>
@@ -558,28 +558,28 @@
         <v>1</v>
       </c>
       <c r="M2">
-        <v>101.7913436666667</v>
+        <v>86.89540866666668</v>
       </c>
       <c r="N2">
-        <v>305.374031</v>
+        <v>260.686226</v>
       </c>
       <c r="O2">
-        <v>0.2805454758424659</v>
+        <v>0.319779657009892</v>
       </c>
       <c r="P2">
-        <v>0.2805454758424659</v>
+        <v>0.3197796570098919</v>
       </c>
       <c r="Q2">
-        <v>422.8084987091205</v>
+        <v>331.9773916553501</v>
       </c>
       <c r="R2">
-        <v>3805.276488382085</v>
+        <v>2987.79652489815</v>
       </c>
       <c r="S2">
-        <v>0.006361959756891798</v>
+        <v>0.006554405438522513</v>
       </c>
       <c r="T2">
-        <v>0.006361959756891799</v>
+        <v>0.006554405438522511</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -602,16 +602,16 @@
         <v>1</v>
       </c>
       <c r="G3">
-        <v>4.153678333333333</v>
+        <v>3.820425</v>
       </c>
       <c r="H3">
-        <v>12.461035</v>
+        <v>11.461275</v>
       </c>
       <c r="I3">
-        <v>0.02267710693885585</v>
+        <v>0.02049663039797357</v>
       </c>
       <c r="J3">
-        <v>0.02267710693885585</v>
+        <v>0.02049663039797357</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -626,22 +626,22 @@
         <v>163.038635</v>
       </c>
       <c r="O3">
-        <v>0.1497827149446808</v>
+        <v>0.1999969065479545</v>
       </c>
       <c r="P3">
-        <v>0.1497827149446808</v>
+        <v>0.1999969065479545</v>
       </c>
       <c r="Q3">
-        <v>225.7366818985805</v>
+        <v>207.625625706625</v>
       </c>
       <c r="R3">
-        <v>2031.630137087225</v>
+        <v>1868.630631359625</v>
       </c>
       <c r="S3">
-        <v>0.003396638644392688</v>
+        <v>0.004099262674251484</v>
       </c>
       <c r="T3">
-        <v>0.003396638644392689</v>
+        <v>0.004099262674251483</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -664,16 +664,16 @@
         <v>1</v>
       </c>
       <c r="G4">
-        <v>4.153678333333333</v>
+        <v>3.820425</v>
       </c>
       <c r="H4">
-        <v>12.461035</v>
+        <v>11.461275</v>
       </c>
       <c r="I4">
-        <v>0.02267710693885585</v>
+        <v>0.02049663039797357</v>
       </c>
       <c r="J4">
-        <v>0.02267710693885585</v>
+        <v>0.02049663039797357</v>
       </c>
       <c r="K4">
         <v>3</v>
@@ -682,28 +682,28 @@
         <v>1</v>
       </c>
       <c r="M4">
-        <v>122.2542826666667</v>
+        <v>60.92601633333334</v>
       </c>
       <c r="N4">
-        <v>366.762848</v>
+        <v>182.778049</v>
       </c>
       <c r="O4">
-        <v>0.3369430510399163</v>
+        <v>0.224210932487692</v>
       </c>
       <c r="P4">
-        <v>0.3369430510399163</v>
+        <v>0.224210932487692</v>
       </c>
       <c r="Q4">
-        <v>507.8049650697421</v>
+        <v>232.763275950275</v>
       </c>
       <c r="R4">
-        <v>4570.244685627679</v>
+        <v>2094.869483552475</v>
       </c>
       <c r="S4">
-        <v>0.007640893600736545</v>
+        <v>0.004595568614385227</v>
       </c>
       <c r="T4">
-        <v>0.007640893600736547</v>
+        <v>0.004595568614385226</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -726,16 +726,16 @@
         <v>1</v>
       </c>
       <c r="G5">
-        <v>4.153678333333333</v>
+        <v>3.820425</v>
       </c>
       <c r="H5">
-        <v>12.461035</v>
+        <v>11.461275</v>
       </c>
       <c r="I5">
-        <v>0.02267710693885585</v>
+        <v>0.02049663039797357</v>
       </c>
       <c r="J5">
-        <v>0.02267710693885585</v>
+        <v>0.02049663039797357</v>
       </c>
       <c r="K5">
         <v>3</v>
@@ -744,28 +744,28 @@
         <v>1</v>
       </c>
       <c r="M5">
-        <v>9.304706666666666</v>
+        <v>7.809668333333332</v>
       </c>
       <c r="N5">
-        <v>27.91412</v>
+        <v>23.429005</v>
       </c>
       <c r="O5">
-        <v>0.02564455154382035</v>
+        <v>0.02873998867505581</v>
       </c>
       <c r="P5">
-        <v>0.02564455154382035</v>
+        <v>0.02873998867505581</v>
       </c>
       <c r="Q5">
-        <v>38.64875847935555</v>
+        <v>29.836252142375</v>
       </c>
       <c r="R5">
-        <v>347.8388263142</v>
+        <v>268.526269281375</v>
       </c>
       <c r="S5">
-        <v>0.0005815442377582149</v>
+        <v>0.000589072925514565</v>
       </c>
       <c r="T5">
-        <v>0.0005815442377582149</v>
+        <v>0.000589072925514565</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -788,16 +788,16 @@
         <v>1</v>
       </c>
       <c r="G6">
-        <v>4.153678333333333</v>
+        <v>3.820425</v>
       </c>
       <c r="H6">
-        <v>12.461035</v>
+        <v>11.461275</v>
       </c>
       <c r="I6">
-        <v>0.02267710693885585</v>
+        <v>0.02049663039797357</v>
       </c>
       <c r="J6">
-        <v>0.02267710693885585</v>
+        <v>0.02049663039797357</v>
       </c>
       <c r="K6">
         <v>3</v>
@@ -806,28 +806,28 @@
         <v>1</v>
       </c>
       <c r="M6">
-        <v>75.13712200000002</v>
+        <v>61.75795633333333</v>
       </c>
       <c r="N6">
-        <v>225.411366</v>
+        <v>185.273869</v>
       </c>
       <c r="O6">
-        <v>0.2070842066291166</v>
+        <v>0.2272725152794058</v>
       </c>
       <c r="P6">
-        <v>0.2070842066291166</v>
+        <v>0.2272725152794058</v>
       </c>
       <c r="Q6">
-        <v>312.0954356804233</v>
+        <v>235.941640324775</v>
       </c>
       <c r="R6">
-        <v>2808.85892112381</v>
+        <v>2123.474762922975</v>
       </c>
       <c r="S6">
-        <v>0.004696070699076598</v>
+        <v>0.004658320745299782</v>
       </c>
       <c r="T6">
-        <v>0.004696070699076598</v>
+        <v>0.004658320745299781</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -856,10 +856,10 @@
         <v>421.767242</v>
       </c>
       <c r="I7">
-        <v>0.7675494732291734</v>
+        <v>0.7542622677884155</v>
       </c>
       <c r="J7">
-        <v>0.7675494732291737</v>
+        <v>0.7542622677884157</v>
       </c>
       <c r="K7">
         <v>3</v>
@@ -868,28 +868,28 @@
         <v>1</v>
       </c>
       <c r="M7">
-        <v>101.7913436666667</v>
+        <v>86.89540866666668</v>
       </c>
       <c r="N7">
-        <v>305.374031</v>
+        <v>260.686226</v>
       </c>
       <c r="O7">
-        <v>0.2805454758424659</v>
+        <v>0.319779657009892</v>
       </c>
       <c r="P7">
-        <v>0.2805454758424659</v>
+        <v>0.3197796570098919</v>
       </c>
       <c r="Q7">
-        <v>14310.75142592139</v>
+        <v>12216.54561860097</v>
       </c>
       <c r="R7">
-        <v>128796.7628332925</v>
+        <v>109948.9105674087</v>
       </c>
       <c r="S7">
-        <v>0.2153325321997125</v>
+        <v>0.2411977292888828</v>
       </c>
       <c r="T7">
-        <v>0.2153325321997125</v>
+        <v>0.2411977292888828</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -918,10 +918,10 @@
         <v>421.767242</v>
       </c>
       <c r="I8">
-        <v>0.7675494732291734</v>
+        <v>0.7542622677884155</v>
       </c>
       <c r="J8">
-        <v>0.7675494732291737</v>
+        <v>0.7542622677884157</v>
       </c>
       <c r="K8">
         <v>3</v>
@@ -936,10 +936,10 @@
         <v>163.038635</v>
       </c>
       <c r="O8">
-        <v>0.1497827149446808</v>
+        <v>0.1999969065479545</v>
       </c>
       <c r="P8">
-        <v>0.1497827149446808</v>
+        <v>0.1999969065479545</v>
       </c>
       <c r="Q8">
         <v>7640.483935932741</v>
@@ -948,10 +948,10 @@
         <v>68764.35542339468</v>
       </c>
       <c r="S8">
-        <v>0.1149656439546252</v>
+        <v>0.150850120283528</v>
       </c>
       <c r="T8">
-        <v>0.1149656439546252</v>
+        <v>0.150850120283528</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -980,10 +980,10 @@
         <v>421.767242</v>
       </c>
       <c r="I9">
-        <v>0.7675494732291734</v>
+        <v>0.7542622677884155</v>
       </c>
       <c r="J9">
-        <v>0.7675494732291737</v>
+        <v>0.7542622677884157</v>
       </c>
       <c r="K9">
         <v>3</v>
@@ -992,28 +992,28 @@
         <v>1</v>
       </c>
       <c r="M9">
-        <v>122.2542826666667</v>
+        <v>60.92601633333334</v>
       </c>
       <c r="N9">
-        <v>366.762848</v>
+        <v>182.778049</v>
       </c>
       <c r="O9">
-        <v>0.3369430510399163</v>
+        <v>0.224210932487692</v>
       </c>
       <c r="P9">
-        <v>0.3369430510399163</v>
+        <v>0.224210932487692</v>
       </c>
       <c r="Q9">
-        <v>17187.61720766947</v>
+        <v>8565.532624985652</v>
       </c>
       <c r="R9">
-        <v>154688.5548690252</v>
+        <v>77089.79362487086</v>
       </c>
       <c r="S9">
-        <v>0.2586204613339183</v>
+        <v>0.1691138464011219</v>
       </c>
       <c r="T9">
-        <v>0.2586204613339183</v>
+        <v>0.1691138464011219</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1042,10 +1042,10 @@
         <v>421.767242</v>
       </c>
       <c r="I10">
-        <v>0.7675494732291734</v>
+        <v>0.7542622677884155</v>
       </c>
       <c r="J10">
-        <v>0.7675494732291737</v>
+        <v>0.7542622677884157</v>
       </c>
       <c r="K10">
         <v>3</v>
@@ -1054,28 +1054,28 @@
         <v>1</v>
       </c>
       <c r="M10">
-        <v>9.304706666666666</v>
+        <v>7.809668333333332</v>
       </c>
       <c r="N10">
-        <v>27.91412</v>
+        <v>23.429005</v>
       </c>
       <c r="O10">
-        <v>0.02564455154382035</v>
+        <v>0.02873998867505581</v>
       </c>
       <c r="P10">
-        <v>0.02564455154382035</v>
+        <v>0.02873998867505581</v>
       </c>
       <c r="Q10">
-        <v>1308.140156139671</v>
+        <v>1097.954091294912</v>
       </c>
       <c r="R10">
-        <v>11773.26140525704</v>
+        <v>9881.586821654209</v>
       </c>
       <c r="S10">
-        <v>0.0196834620286577</v>
+        <v>0.02167748903426098</v>
       </c>
       <c r="T10">
-        <v>0.0196834620286577</v>
+        <v>0.02167748903426098</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1104,10 +1104,10 @@
         <v>421.767242</v>
       </c>
       <c r="I11">
-        <v>0.7675494732291734</v>
+        <v>0.7542622677884155</v>
       </c>
       <c r="J11">
-        <v>0.7675494732291737</v>
+        <v>0.7542622677884157</v>
       </c>
       <c r="K11">
         <v>3</v>
@@ -1116,28 +1116,28 @@
         <v>1</v>
       </c>
       <c r="M11">
-        <v>75.13712200000002</v>
+        <v>61.75795633333333</v>
       </c>
       <c r="N11">
-        <v>225.411366</v>
+        <v>185.273869</v>
       </c>
       <c r="O11">
-        <v>0.2070842066291166</v>
+        <v>0.2272725152794058</v>
       </c>
       <c r="P11">
-        <v>0.2070842066291166</v>
+        <v>0.2272725152794058</v>
       </c>
       <c r="Q11">
-        <v>10563.45890591918</v>
+        <v>8682.494304755477</v>
       </c>
       <c r="R11">
-        <v>95071.13015327259</v>
+        <v>78142.4487427993</v>
       </c>
       <c r="S11">
-        <v>0.1589473737122598</v>
+        <v>0.171423082780622</v>
       </c>
       <c r="T11">
-        <v>0.1589473737122598</v>
+        <v>0.171423082780622</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1160,16 +1160,16 @@
         <v>1</v>
       </c>
       <c r="G12">
-        <v>7.122973333333332</v>
+        <v>30.51067</v>
       </c>
       <c r="H12">
-        <v>21.36892</v>
+        <v>91.53201</v>
       </c>
       <c r="I12">
-        <v>0.03888804453304685</v>
+        <v>0.1636901460399144</v>
       </c>
       <c r="J12">
-        <v>0.03888804453304685</v>
+        <v>0.1636901460399144</v>
       </c>
       <c r="K12">
         <v>3</v>
@@ -1178,28 +1178,28 @@
         <v>1</v>
       </c>
       <c r="M12">
-        <v>101.7913436666667</v>
+        <v>86.89540866666668</v>
       </c>
       <c r="N12">
-        <v>305.374031</v>
+        <v>260.686226</v>
       </c>
       <c r="O12">
-        <v>0.2805454758424659</v>
+        <v>0.319779657009892</v>
       </c>
       <c r="P12">
-        <v>0.2805454758424659</v>
+        <v>0.3197796570098919</v>
       </c>
       <c r="Q12">
-        <v>725.0570265018354</v>
+        <v>2651.237138343807</v>
       </c>
       <c r="R12">
-        <v>6525.513238516519</v>
+        <v>23861.13424509426</v>
       </c>
       <c r="S12">
-        <v>0.01090986495810663</v>
+        <v>0.05234477875654297</v>
       </c>
       <c r="T12">
-        <v>0.01090986495810663</v>
+        <v>0.05234477875654295</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1222,16 +1222,16 @@
         <v>1</v>
       </c>
       <c r="G13">
-        <v>7.122973333333332</v>
+        <v>30.51067</v>
       </c>
       <c r="H13">
-        <v>21.36892</v>
+        <v>91.53201</v>
       </c>
       <c r="I13">
-        <v>0.03888804453304685</v>
+        <v>0.1636901460399144</v>
       </c>
       <c r="J13">
-        <v>0.03888804453304685</v>
+        <v>0.1636901460399144</v>
       </c>
       <c r="K13">
         <v>3</v>
@@ -1246,22 +1246,22 @@
         <v>163.038635</v>
       </c>
       <c r="O13">
-        <v>0.1497827149446808</v>
+        <v>0.1999969065479545</v>
       </c>
       <c r="P13">
-        <v>0.1497827149446808</v>
+        <v>0.1999969065479545</v>
       </c>
       <c r="Q13">
-        <v>387.1066164693555</v>
+        <v>1658.139329911817</v>
       </c>
       <c r="R13">
-        <v>3483.959548224199</v>
+        <v>14923.25396920635</v>
       </c>
       <c r="S13">
-        <v>0.005824756889049408</v>
+        <v>0.0327375228403658</v>
       </c>
       <c r="T13">
-        <v>0.005824756889049409</v>
+        <v>0.0327375228403658</v>
       </c>
     </row>
     <row r="14" spans="1:20">
@@ -1284,16 +1284,16 @@
         <v>1</v>
       </c>
       <c r="G14">
-        <v>7.122973333333332</v>
+        <v>30.51067</v>
       </c>
       <c r="H14">
-        <v>21.36892</v>
+        <v>91.53201</v>
       </c>
       <c r="I14">
-        <v>0.03888804453304685</v>
+        <v>0.1636901460399144</v>
       </c>
       <c r="J14">
-        <v>0.03888804453304685</v>
+        <v>0.1636901460399144</v>
       </c>
       <c r="K14">
         <v>3</v>
@@ -1302,28 +1302,28 @@
         <v>1</v>
       </c>
       <c r="M14">
-        <v>122.2542826666667</v>
+        <v>60.92601633333334</v>
       </c>
       <c r="N14">
-        <v>366.762848</v>
+        <v>182.778049</v>
       </c>
       <c r="O14">
-        <v>0.3369430510399163</v>
+        <v>0.224210932487692</v>
       </c>
       <c r="P14">
-        <v>0.3369430510399163</v>
+        <v>0.224210932487692</v>
       </c>
       <c r="Q14">
-        <v>870.8139953204619</v>
+        <v>1858.893578760943</v>
       </c>
       <c r="R14">
-        <v>7837.325957884158</v>
+        <v>16730.04220884849</v>
       </c>
       <c r="S14">
-        <v>0.01310305637394094</v>
+        <v>0.0367011202826557</v>
       </c>
       <c r="T14">
-        <v>0.01310305637394094</v>
+        <v>0.03670112028265569</v>
       </c>
     </row>
     <row r="15" spans="1:20">
@@ -1346,16 +1346,16 @@
         <v>1</v>
       </c>
       <c r="G15">
-        <v>7.122973333333332</v>
+        <v>30.51067</v>
       </c>
       <c r="H15">
-        <v>21.36892</v>
+        <v>91.53201</v>
       </c>
       <c r="I15">
-        <v>0.03888804453304685</v>
+        <v>0.1636901460399144</v>
       </c>
       <c r="J15">
-        <v>0.03888804453304685</v>
+        <v>0.1636901460399144</v>
       </c>
       <c r="K15">
         <v>3</v>
@@ -1364,28 +1364,28 @@
         <v>1</v>
       </c>
       <c r="M15">
-        <v>9.304706666666666</v>
+        <v>7.809668333333332</v>
       </c>
       <c r="N15">
-        <v>27.91412</v>
+        <v>23.429005</v>
       </c>
       <c r="O15">
-        <v>0.02564455154382035</v>
+        <v>0.02873998867505581</v>
       </c>
       <c r="P15">
-        <v>0.02564455154382035</v>
+        <v>0.02873998867505581</v>
       </c>
       <c r="Q15">
-        <v>66.27717746115553</v>
+        <v>238.2782133277833</v>
       </c>
       <c r="R15">
-        <v>596.4945971503998</v>
+        <v>2144.50391995005</v>
       </c>
       <c r="S15">
-        <v>0.0009972664624661011</v>
+        <v>0.004704452943405373</v>
       </c>
       <c r="T15">
-        <v>0.0009972664624661013</v>
+        <v>0.004704452943405373</v>
       </c>
     </row>
     <row r="16" spans="1:20">
@@ -1408,16 +1408,16 @@
         <v>1</v>
       </c>
       <c r="G16">
-        <v>7.122973333333332</v>
+        <v>30.51067</v>
       </c>
       <c r="H16">
-        <v>21.36892</v>
+        <v>91.53201</v>
       </c>
       <c r="I16">
-        <v>0.03888804453304685</v>
+        <v>0.1636901460399144</v>
       </c>
       <c r="J16">
-        <v>0.03888804453304685</v>
+        <v>0.1636901460399144</v>
       </c>
       <c r="K16">
         <v>3</v>
@@ -1426,28 +1426,28 @@
         <v>1</v>
       </c>
       <c r="M16">
-        <v>75.13712200000002</v>
+        <v>61.75795633333333</v>
       </c>
       <c r="N16">
-        <v>225.411366</v>
+        <v>185.273869</v>
       </c>
       <c r="O16">
-        <v>0.2070842066291166</v>
+        <v>0.2272725152794058</v>
       </c>
       <c r="P16">
-        <v>0.2070842066291166</v>
+        <v>0.2272725152794058</v>
       </c>
       <c r="Q16">
-        <v>535.1997163494134</v>
+        <v>1884.276625560743</v>
       </c>
       <c r="R16">
-        <v>4816.79744714472</v>
+        <v>16958.48963004669</v>
       </c>
       <c r="S16">
-        <v>0.00805309984948376</v>
+        <v>0.03720227121694463</v>
       </c>
       <c r="T16">
-        <v>0.00805309984948376</v>
+        <v>0.03720227121694462</v>
       </c>
     </row>
     <row r="17" spans="1:20">
@@ -1470,16 +1470,16 @@
         <v>1</v>
       </c>
       <c r="G17">
-        <v>0.3870006666666667</v>
+        <v>0.258813</v>
       </c>
       <c r="H17">
-        <v>1.161002</v>
+        <v>0.776439</v>
       </c>
       <c r="I17">
-        <v>0.002112839463995207</v>
+        <v>0.001388535150720334</v>
       </c>
       <c r="J17">
-        <v>0.002112839463995208</v>
+        <v>0.001388535150720334</v>
       </c>
       <c r="K17">
         <v>3</v>
@@ -1488,28 +1488,28 @@
         <v>1</v>
       </c>
       <c r="M17">
-        <v>101.7913436666667</v>
+        <v>86.89540866666668</v>
       </c>
       <c r="N17">
-        <v>305.374031</v>
+        <v>260.686226</v>
       </c>
       <c r="O17">
-        <v>0.2805454758424659</v>
+        <v>0.319779657009892</v>
       </c>
       <c r="P17">
-        <v>0.2805454758424659</v>
+        <v>0.3197796570098919</v>
       </c>
       <c r="Q17">
-        <v>39.39331785989578</v>
+        <v>22.48966140324601</v>
       </c>
       <c r="R17">
-        <v>354.539860739062</v>
+        <v>202.406952629214</v>
       </c>
       <c r="S17">
-        <v>0.000592747552805276</v>
+        <v>0.0004440252942435271</v>
       </c>
       <c r="T17">
-        <v>0.0005927475528052761</v>
+        <v>0.000444025294243527</v>
       </c>
     </row>
     <row r="18" spans="1:20">
@@ -1532,16 +1532,16 @@
         <v>1</v>
       </c>
       <c r="G18">
-        <v>0.3870006666666667</v>
+        <v>0.258813</v>
       </c>
       <c r="H18">
-        <v>1.161002</v>
+        <v>0.776439</v>
       </c>
       <c r="I18">
-        <v>0.002112839463995207</v>
+        <v>0.001388535150720334</v>
       </c>
       <c r="J18">
-        <v>0.002112839463995208</v>
+        <v>0.001388535150720334</v>
       </c>
       <c r="K18">
         <v>3</v>
@@ -1556,22 +1556,22 @@
         <v>163.038635</v>
       </c>
       <c r="O18">
-        <v>0.1497827149446808</v>
+        <v>0.1999969065479545</v>
       </c>
       <c r="P18">
-        <v>0.1497827149446808</v>
+        <v>0.1999969065479545</v>
       </c>
       <c r="Q18">
-        <v>21.03202014580778</v>
+        <v>14.065506080085</v>
       </c>
       <c r="R18">
-        <v>189.28818131227</v>
+        <v>126.589554720765</v>
       </c>
       <c r="S18">
-        <v>0.0003164668311594663</v>
+        <v>0.0002777027347771647</v>
       </c>
       <c r="T18">
-        <v>0.0003164668311594663</v>
+        <v>0.0002777027347771646</v>
       </c>
     </row>
     <row r="19" spans="1:20">
@@ -1594,16 +1594,16 @@
         <v>1</v>
       </c>
       <c r="G19">
-        <v>0.3870006666666667</v>
+        <v>0.258813</v>
       </c>
       <c r="H19">
-        <v>1.161002</v>
+        <v>0.776439</v>
       </c>
       <c r="I19">
-        <v>0.002112839463995207</v>
+        <v>0.001388535150720334</v>
       </c>
       <c r="J19">
-        <v>0.002112839463995208</v>
+        <v>0.001388535150720334</v>
       </c>
       <c r="K19">
         <v>3</v>
@@ -1612,28 +1612,28 @@
         <v>1</v>
       </c>
       <c r="M19">
-        <v>122.2542826666667</v>
+        <v>60.92601633333334</v>
       </c>
       <c r="N19">
-        <v>366.762848</v>
+        <v>182.778049</v>
       </c>
       <c r="O19">
-        <v>0.3369430510399163</v>
+        <v>0.224210932487692</v>
       </c>
       <c r="P19">
-        <v>0.3369430510399163</v>
+        <v>0.224210932487692</v>
       </c>
       <c r="Q19">
-        <v>47.31248889485511</v>
+        <v>15.768445065279</v>
       </c>
       <c r="R19">
-        <v>425.812400053696</v>
+        <v>141.916005587511</v>
       </c>
       <c r="S19">
-        <v>0.0007119065753560866</v>
+        <v>0.0003113247609349441</v>
       </c>
       <c r="T19">
-        <v>0.0007119065753560867</v>
+        <v>0.000311324760934944</v>
       </c>
     </row>
     <row r="20" spans="1:20">
@@ -1656,16 +1656,16 @@
         <v>1</v>
       </c>
       <c r="G20">
-        <v>0.3870006666666667</v>
+        <v>0.258813</v>
       </c>
       <c r="H20">
-        <v>1.161002</v>
+        <v>0.776439</v>
       </c>
       <c r="I20">
-        <v>0.002112839463995207</v>
+        <v>0.001388535150720334</v>
       </c>
       <c r="J20">
-        <v>0.002112839463995208</v>
+        <v>0.001388535150720334</v>
       </c>
       <c r="K20">
         <v>3</v>
@@ -1674,28 +1674,28 @@
         <v>1</v>
       </c>
       <c r="M20">
-        <v>9.304706666666666</v>
+        <v>7.809668333333332</v>
       </c>
       <c r="N20">
-        <v>27.91412</v>
+        <v>23.429005</v>
       </c>
       <c r="O20">
-        <v>0.02564455154382035</v>
+        <v>0.02873998867505581</v>
       </c>
       <c r="P20">
-        <v>0.02564455154382035</v>
+        <v>0.02873998867505581</v>
       </c>
       <c r="Q20">
-        <v>3.600927683137778</v>
+        <v>2.021243690355</v>
       </c>
       <c r="R20">
-        <v>32.40834914824001</v>
+        <v>18.191193213195</v>
       </c>
       <c r="S20">
-        <v>5.418282053824286E-05</v>
+        <v>3.990648450661932E-05</v>
       </c>
       <c r="T20">
-        <v>5.418282053824287E-05</v>
+        <v>3.990648450661931E-05</v>
       </c>
     </row>
     <row r="21" spans="1:20">
@@ -1718,16 +1718,16 @@
         <v>1</v>
       </c>
       <c r="G21">
-        <v>0.3870006666666667</v>
+        <v>0.258813</v>
       </c>
       <c r="H21">
-        <v>1.161002</v>
+        <v>0.776439</v>
       </c>
       <c r="I21">
-        <v>0.002112839463995207</v>
+        <v>0.001388535150720334</v>
       </c>
       <c r="J21">
-        <v>0.002112839463995208</v>
+        <v>0.001388535150720334</v>
       </c>
       <c r="K21">
         <v>3</v>
@@ -1736,28 +1736,28 @@
         <v>1</v>
       </c>
       <c r="M21">
-        <v>75.13712200000002</v>
+        <v>61.75795633333333</v>
       </c>
       <c r="N21">
-        <v>225.411366</v>
+        <v>185.273869</v>
       </c>
       <c r="O21">
-        <v>0.2070842066291166</v>
+        <v>0.2272725152794058</v>
       </c>
       <c r="P21">
-        <v>0.2070842066291166</v>
+        <v>0.2272725152794058</v>
       </c>
       <c r="Q21">
-        <v>29.07811630541468</v>
+        <v>15.983761952499</v>
       </c>
       <c r="R21">
-        <v>261.703046748732</v>
+        <v>143.853857572491</v>
       </c>
       <c r="S21">
-        <v>0.0004375356841361355</v>
+        <v>0.0003155758762580792</v>
       </c>
       <c r="T21">
-        <v>0.0004375356841361355</v>
+        <v>0.0003155758762580792</v>
       </c>
     </row>
     <row r="22" spans="1:20">
@@ -1780,16 +1780,16 @@
         <v>1</v>
       </c>
       <c r="G22">
-        <v>30.91341533333334</v>
+        <v>11.213844</v>
       </c>
       <c r="H22">
-        <v>92.74024600000001</v>
+        <v>33.641532</v>
       </c>
       <c r="I22">
-        <v>0.1687725358349285</v>
+        <v>0.0601624206229761</v>
       </c>
       <c r="J22">
-        <v>0.1687725358349286</v>
+        <v>0.0601624206229761</v>
       </c>
       <c r="K22">
         <v>3</v>
@@ -1798,28 +1798,28 @@
         <v>1</v>
       </c>
       <c r="M22">
-        <v>101.7913436666667</v>
+        <v>86.89540866666668</v>
       </c>
       <c r="N22">
-        <v>305.374031</v>
+        <v>260.686226</v>
       </c>
       <c r="O22">
-        <v>0.2805454758424659</v>
+        <v>0.319779657009892</v>
       </c>
       <c r="P22">
-        <v>0.2805454758424659</v>
+        <v>0.3197796570098919</v>
       </c>
       <c r="Q22">
-        <v>3146.718084105737</v>
+        <v>974.4315571042482</v>
       </c>
       <c r="R22">
-        <v>28320.46275695163</v>
+        <v>8769.884013938232</v>
       </c>
       <c r="S22">
-        <v>0.04734837137494964</v>
+        <v>0.01923871823170015</v>
       </c>
       <c r="T22">
-        <v>0.04734837137494965</v>
+        <v>0.01923871823170014</v>
       </c>
     </row>
     <row r="23" spans="1:20">
@@ -1842,16 +1842,16 @@
         <v>1</v>
       </c>
       <c r="G23">
-        <v>30.91341533333334</v>
+        <v>11.213844</v>
       </c>
       <c r="H23">
-        <v>92.74024600000001</v>
+        <v>33.641532</v>
       </c>
       <c r="I23">
-        <v>0.1687725358349285</v>
+        <v>0.0601624206229761</v>
       </c>
       <c r="J23">
-        <v>0.1687725358349286</v>
+        <v>0.0601624206229761</v>
       </c>
       <c r="K23">
         <v>3</v>
@@ -1866,22 +1866,22 @@
         <v>163.038635</v>
       </c>
       <c r="O23">
-        <v>0.1497827149446808</v>
+        <v>0.1999969065479545</v>
       </c>
       <c r="P23">
-        <v>0.1497827149446808</v>
+        <v>0.1999969065479545</v>
       </c>
       <c r="Q23">
-        <v>1680.027013044913</v>
+        <v>609.42993962098</v>
       </c>
       <c r="R23">
-        <v>15120.24311740421</v>
+        <v>5484.86945658882</v>
       </c>
       <c r="S23">
-        <v>0.02527920862545402</v>
+        <v>0.01203229801503209</v>
       </c>
       <c r="T23">
-        <v>0.02527920862545403</v>
+        <v>0.01203229801503208</v>
       </c>
     </row>
     <row r="24" spans="1:20">
@@ -1904,16 +1904,16 @@
         <v>1</v>
       </c>
       <c r="G24">
-        <v>30.91341533333334</v>
+        <v>11.213844</v>
       </c>
       <c r="H24">
-        <v>92.74024600000001</v>
+        <v>33.641532</v>
       </c>
       <c r="I24">
-        <v>0.1687725358349285</v>
+        <v>0.0601624206229761</v>
       </c>
       <c r="J24">
-        <v>0.1687725358349286</v>
+        <v>0.0601624206229761</v>
       </c>
       <c r="K24">
         <v>3</v>
@@ -1922,28 +1922,28 @@
         <v>1</v>
       </c>
       <c r="M24">
-        <v>122.2542826666667</v>
+        <v>60.92601633333334</v>
       </c>
       <c r="N24">
-        <v>366.762848</v>
+        <v>182.778049</v>
       </c>
       <c r="O24">
-        <v>0.3369430510399163</v>
+        <v>0.224210932487692</v>
       </c>
       <c r="P24">
-        <v>0.3369430510399163</v>
+        <v>0.224210932487692</v>
       </c>
       <c r="Q24">
-        <v>3779.297416353401</v>
+        <v>683.2148427034521</v>
       </c>
       <c r="R24">
-        <v>34013.67674718061</v>
+        <v>6148.933584331068</v>
       </c>
       <c r="S24">
-        <v>0.05686673315596442</v>
+        <v>0.01348907242859422</v>
       </c>
       <c r="T24">
-        <v>0.05686673315596444</v>
+        <v>0.01348907242859422</v>
       </c>
     </row>
     <row r="25" spans="1:20">
@@ -1966,16 +1966,16 @@
         <v>1</v>
       </c>
       <c r="G25">
-        <v>30.91341533333334</v>
+        <v>11.213844</v>
       </c>
       <c r="H25">
-        <v>92.74024600000001</v>
+        <v>33.641532</v>
       </c>
       <c r="I25">
-        <v>0.1687725358349285</v>
+        <v>0.0601624206229761</v>
       </c>
       <c r="J25">
-        <v>0.1687725358349286</v>
+        <v>0.0601624206229761</v>
       </c>
       <c r="K25">
         <v>3</v>
@@ -1984,28 +1984,28 @@
         <v>1</v>
       </c>
       <c r="M25">
-        <v>9.304706666666666</v>
+        <v>7.809668333333332</v>
       </c>
       <c r="N25">
-        <v>27.91412</v>
+        <v>23.429005</v>
       </c>
       <c r="O25">
-        <v>0.02564455154382035</v>
+        <v>0.02873998867505581</v>
       </c>
       <c r="P25">
-        <v>0.02564455154382035</v>
+        <v>0.02873998867505581</v>
       </c>
       <c r="Q25">
-        <v>287.6402617415022</v>
+        <v>87.57640238173998</v>
       </c>
       <c r="R25">
-        <v>2588.76235567352</v>
+        <v>788.1876214356598</v>
       </c>
       <c r="S25">
-        <v>0.004328095994400091</v>
+        <v>0.001729067287368278</v>
       </c>
       <c r="T25">
-        <v>0.004328095994400093</v>
+        <v>0.001729067287368277</v>
       </c>
     </row>
     <row r="26" spans="1:20">
@@ -2028,16 +2028,16 @@
         <v>1</v>
       </c>
       <c r="G26">
-        <v>30.91341533333334</v>
+        <v>11.213844</v>
       </c>
       <c r="H26">
-        <v>92.74024600000001</v>
+        <v>33.641532</v>
       </c>
       <c r="I26">
-        <v>0.1687725358349285</v>
+        <v>0.0601624206229761</v>
       </c>
       <c r="J26">
-        <v>0.1687725358349286</v>
+        <v>0.0601624206229761</v>
       </c>
       <c r="K26">
         <v>3</v>
@@ -2046,28 +2046,28 @@
         <v>1</v>
       </c>
       <c r="M26">
-        <v>75.13712200000002</v>
+        <v>61.75795633333333</v>
       </c>
       <c r="N26">
-        <v>225.411366</v>
+        <v>185.273869</v>
       </c>
       <c r="O26">
-        <v>0.2070842066291166</v>
+        <v>0.2272725152794058</v>
       </c>
       <c r="P26">
-        <v>0.2070842066291166</v>
+        <v>0.2272725152794058</v>
       </c>
       <c r="Q26">
-        <v>2322.745059337338</v>
+        <v>692.544088080812</v>
       </c>
       <c r="R26">
-        <v>20904.70553403604</v>
+        <v>6232.896792727307</v>
       </c>
       <c r="S26">
-        <v>0.03495012668416032</v>
+        <v>0.01367326466028138</v>
       </c>
       <c r="T26">
-        <v>0.03495012668416033</v>
+        <v>0.01367326466028137</v>
       </c>
     </row>
   </sheetData>
